--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas2.cc.ic.ac.uk\faw18\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spyros/Documents/GitHub/MIPS-simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1068669-6AF3-45DB-827C-FE0DEF561A18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA73C9BF-4299-F547-95CA-E024AC137CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{435ADD21-B140-43C6-AF01-95ADDEAD3BE0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="15560" xr2:uid="{435ADD21-B140-43C6-AF01-95ADDEAD3BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,19 +716,19 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -768,7 +768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -788,7 +788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -808,7 +808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -828,7 +828,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -848,7 +848,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -868,7 +868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -888,7 +888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -908,7 +908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -928,7 +928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -948,7 +948,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -968,7 +968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -988,7 +988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
